--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +417,10 @@
         <v>Phú Quốc</v>
       </c>
       <c r="C2" t="str">
-        <v>29/07/2020</v>
+        <v>27/07/2020</v>
       </c>
       <c r="D2" t="str">
-        <v>29/07/2020</v>
+        <v>27/07/2020</v>
       </c>
       <c r="E2" t="str">
         <v>VJ719</v>
@@ -446,10 +446,10 @@
         <v>Phú Quốc</v>
       </c>
       <c r="C3" t="str">
-        <v>29/07/2020</v>
+        <v>27/07/2020</v>
       </c>
       <c r="D3" t="str">
-        <v>29/07/2020</v>
+        <v>27/07/2020</v>
       </c>
       <c r="E3" t="str">
         <v>VJ739</v>
@@ -464,99 +464,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <v>Eco</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C4" t="str">
-        <v>05/08/2020</v>
-      </c>
-      <c r="D4" t="str">
-        <v>05/08/2020</v>
-      </c>
-      <c r="E4" t="str">
-        <v>VJ718</v>
-      </c>
-      <c r="F4" t="str">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <v>0</v>
-      </c>
-      <c r="H4" t="str">
-        <v>0</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Eco</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C5" t="str">
-        <v>05/08/2020</v>
-      </c>
-      <c r="D5" t="str">
-        <v>05/08/2020</v>
-      </c>
-      <c r="E5" t="str">
-        <v>VN7490</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <v>0</v>
-      </c>
-      <c r="I5" t="str">
-        <v>E</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C6" t="str">
-        <v>05/08/2020</v>
-      </c>
-      <c r="D6" t="str">
-        <v>05/08/2020</v>
-      </c>
-      <c r="E6" t="str">
-        <v>VJ738</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>0</v>
-      </c>
-      <c r="H6" t="str">
-        <v>0</v>
-      </c>
-      <c r="I6" t="str">
         <v>Eco</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,13 +417,13 @@
         <v>Phú Quốc</v>
       </c>
       <c r="C2" t="str">
-        <v>27/07/2020</v>
+        <v>28/07/2020</v>
       </c>
       <c r="D2" t="str">
-        <v>27/07/2020</v>
+        <v>28/07/2020</v>
       </c>
       <c r="E2" t="str">
-        <v>VJ719</v>
+        <v>VJ739</v>
       </c>
       <c r="F2" t="str">
         <v>1</v>
@@ -432,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>Eco</v>
+        <v>Promo</v>
       </c>
     </row>
     <row r="3">
@@ -446,13 +446,13 @@
         <v>Phú Quốc</v>
       </c>
       <c r="C3" t="str">
-        <v>27/07/2020</v>
+        <v>28/07/2020</v>
       </c>
       <c r="D3" t="str">
-        <v>27/07/2020</v>
+        <v>28/07/2020</v>
       </c>
       <c r="E3" t="str">
-        <v>VJ739</v>
+        <v>VJ719</v>
       </c>
       <c r="F3" t="str">
         <v>1</v>
@@ -461,15 +461,160 @@
         <v>0</v>
       </c>
       <c r="H3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
         <v>Eco</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Phú Quốc</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Đà Nẵng</v>
+      </c>
+      <c r="C4" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="D4" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="E4" t="str">
+        <v>VJ738</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v>1</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Promo</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Phú Quốc</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Đà Nẵng</v>
+      </c>
+      <c r="C5" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="D5" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="E5" t="str">
+        <v>QH2058</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v>1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>BAMBOOPLUS</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Phú Quốc</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Đà Nẵng</v>
+      </c>
+      <c r="C6" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="D6" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="E6" t="str">
+        <v>VJ718</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Eco</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Phú Quốc</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Đà Nẵng</v>
+      </c>
+      <c r="C7" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="D7" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="E7" t="str">
+        <v>VN1492</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Phú Quốc</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Đà Nẵng</v>
+      </c>
+      <c r="C8" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="D8" t="str">
+        <v>04/08/2020</v>
+      </c>
+      <c r="E8" t="str">
+        <v>VN1490</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <v>N</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +417,10 @@
         <v>Phú Quốc</v>
       </c>
       <c r="C2" t="str">
-        <v>28/07/2020</v>
+        <v>30/07/2020</v>
       </c>
       <c r="D2" t="str">
-        <v>28/07/2020</v>
+        <v>30/07/2020</v>
       </c>
       <c r="E2" t="str">
         <v>VJ739</v>
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="str">
         <v>Promo</v>
@@ -446,10 +446,10 @@
         <v>Phú Quốc</v>
       </c>
       <c r="C3" t="str">
-        <v>28/07/2020</v>
+        <v>30/07/2020</v>
       </c>
       <c r="D3" t="str">
-        <v>28/07/2020</v>
+        <v>30/07/2020</v>
       </c>
       <c r="E3" t="str">
         <v>VJ719</v>
@@ -461,160 +461,15 @@
         <v>0</v>
       </c>
       <c r="H3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="str">
         <v>Eco</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C4" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="D4" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="E4" t="str">
-        <v>VJ738</v>
-      </c>
-      <c r="F4" t="str">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <v>0</v>
-      </c>
-      <c r="H4" t="str">
-        <v>1</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Promo</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C5" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="D5" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="E5" t="str">
-        <v>QH2058</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <v>1</v>
-      </c>
-      <c r="I5" t="str">
-        <v>BAMBOOPLUS</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C6" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="D6" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="E6" t="str">
-        <v>VJ718</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>0</v>
-      </c>
-      <c r="H6" t="str">
-        <v>1</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Eco</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C7" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="D7" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="E7" t="str">
-        <v>VN1492</v>
-      </c>
-      <c r="F7" t="str">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <v>0</v>
-      </c>
-      <c r="H7" t="str">
-        <v>1</v>
-      </c>
-      <c r="I7" t="str">
-        <v>T</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Phú Quốc</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Đà Nẵng</v>
-      </c>
-      <c r="C8" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="D8" t="str">
-        <v>04/08/2020</v>
-      </c>
-      <c r="E8" t="str">
-        <v>VN1490</v>
-      </c>
-      <c r="F8" t="str">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
-        <v>0</v>
-      </c>
-      <c r="H8" t="str">
-        <v>1</v>
-      </c>
-      <c r="I8" t="str">
-        <v>N</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -411,10 +411,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Đà Nẵng</v>
+        <v>Quảng Bình</v>
       </c>
       <c r="B2" t="str">
-        <v>Phú Quốc</v>
+        <v>Hồ Chí Minh</v>
       </c>
       <c r="C2" t="str">
         <v>30/07/2020</v>
@@ -423,27 +423,27 @@
         <v>30/07/2020</v>
       </c>
       <c r="E2" t="str">
-        <v>VJ739</v>
+        <v>VJ261</v>
       </c>
       <c r="F2" t="str">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>Promo</v>
+        <v>Eco</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Đà Nẵng</v>
+        <v>Quảng Bình</v>
       </c>
       <c r="B3" t="str">
-        <v>Phú Quốc</v>
+        <v>Hồ Chí Minh</v>
       </c>
       <c r="C3" t="str">
         <v>30/07/2020</v>
@@ -452,16 +452,16 @@
         <v>30/07/2020</v>
       </c>
       <c r="E3" t="str">
-        <v>VJ719</v>
+        <v>VJ263</v>
       </c>
       <c r="F3" t="str">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
         <v>Eco</v>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,22 +408,25 @@
       <c r="I1" t="str">
         <v>Loại ghế</v>
       </c>
+      <c r="J1" t="str">
+        <v>Giá</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Quảng Bình</v>
+        <v>Hồ Chí Minh</v>
       </c>
       <c r="B2" t="str">
-        <v>Hồ Chí Minh</v>
+        <v>Nha Trang</v>
       </c>
       <c r="C2" t="str">
-        <v>30/07/2020</v>
+        <v>03/08/2020</v>
       </c>
       <c r="D2" t="str">
-        <v>30/07/2020</v>
+        <v>03/08/2020</v>
       </c>
       <c r="E2" t="str">
-        <v>VJ261</v>
+        <v>VJ690</v>
       </c>
       <c r="F2" t="str">
         <v>1</v>
@@ -435,41 +438,143 @@
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>Eco</v>
+        <v>Promo</v>
+      </c>
+      <c r="J2" t="str">
+        <v>1.256.000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Quảng Bình</v>
+        <v>Hồ Chí Minh</v>
       </c>
       <c r="B3" t="str">
+        <v>Nha Trang</v>
+      </c>
+      <c r="C3" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="D3" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="E3" t="str">
+        <v>VJ684</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Promo</v>
+      </c>
+      <c r="J3" t="str">
+        <v>1.256.000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>Hồ Chí Minh</v>
       </c>
-      <c r="C3" t="str">
-        <v>30/07/2020</v>
-      </c>
-      <c r="D3" t="str">
-        <v>30/07/2020</v>
-      </c>
-      <c r="E3" t="str">
-        <v>VJ263</v>
-      </c>
-      <c r="F3" t="str">
-        <v>1</v>
-      </c>
-      <c r="G3" t="str">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="B4" t="str">
+        <v>Nha Trang</v>
+      </c>
+      <c r="C4" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="D4" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="E4" t="str">
+        <v>VJ686</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>1</v>
+      </c>
+      <c r="I4" t="str">
         <v>Eco</v>
+      </c>
+      <c r="J4" t="str">
+        <v>1.390.000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Hồ Chí Minh</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Nha Trang</v>
+      </c>
+      <c r="C5" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="D5" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="E5" t="str">
+        <v>VJ696</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Eco</v>
+      </c>
+      <c r="J5" t="str">
+        <v>1.544.000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Hồ Chí Minh</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Nha Trang</v>
+      </c>
+      <c r="C6" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="D6" t="str">
+        <v>03/08/2020</v>
+      </c>
+      <c r="E6" t="str">
+        <v>VJ698</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Eco</v>
+      </c>
+      <c r="J6" t="str">
+        <v>1.544.000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>